--- a/Coding_MedicalvsNonmedical.xlsx
+++ b/Coding_MedicalvsNonmedical.xlsx
@@ -675,7 +675,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -693,6 +693,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -769,7 +777,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -782,6 +790,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1098,8 +1108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N587"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="L85" sqref="L85"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="H83" sqref="H83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1970,10 +1980,10 @@
       <c r="F28" t="s">
         <v>5</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="10" t="s">
         <v>59</v>
       </c>
       <c r="I28">
@@ -2260,10 +2270,10 @@
       <c r="F38" t="s">
         <v>5</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="G38" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="H38" s="11" t="s">
         <v>79</v>
       </c>
       <c r="I38">
@@ -3275,10 +3285,10 @@
       <c r="F73" t="s">
         <v>5</v>
       </c>
-      <c r="G73" s="2" t="s">
+      <c r="G73" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="H73" s="2" t="s">
+      <c r="H73" s="10" t="s">
         <v>149</v>
       </c>
       <c r="I73">
@@ -3304,10 +3314,10 @@
       <c r="F74" t="s">
         <v>5</v>
       </c>
-      <c r="G74" s="2" t="s">
+      <c r="G74" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="H74" s="2" t="s">
+      <c r="H74" s="10" t="s">
         <v>151</v>
       </c>
       <c r="I74">
@@ -3333,10 +3343,10 @@
       <c r="F75" t="s">
         <v>5</v>
       </c>
-      <c r="G75" s="2" t="s">
+      <c r="G75" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="H75" s="2" t="s">
+      <c r="H75" s="10" t="s">
         <v>153</v>
       </c>
       <c r="I75">
@@ -3362,10 +3372,10 @@
       <c r="F76" t="s">
         <v>5</v>
       </c>
-      <c r="G76" s="2" t="s">
+      <c r="G76" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="H76" s="2" t="s">
+      <c r="H76" s="10" t="s">
         <v>155</v>
       </c>
       <c r="I76">
@@ -3391,10 +3401,10 @@
       <c r="F77" t="s">
         <v>5</v>
       </c>
-      <c r="G77" s="2" t="s">
+      <c r="G77" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="H77" s="2" t="s">
+      <c r="H77" s="10" t="s">
         <v>157</v>
       </c>
       <c r="I77">
@@ -3420,10 +3430,10 @@
       <c r="F78" t="s">
         <v>5</v>
       </c>
-      <c r="G78" s="2" t="s">
+      <c r="G78" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="H78" s="2" t="s">
+      <c r="H78" s="10" t="s">
         <v>159</v>
       </c>
       <c r="I78">
@@ -3449,10 +3459,10 @@
       <c r="F79" t="s">
         <v>5</v>
       </c>
-      <c r="G79" s="2" t="s">
+      <c r="G79" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="H79" s="2" t="s">
+      <c r="H79" s="10" t="s">
         <v>161</v>
       </c>
       <c r="I79">
@@ -3478,10 +3488,10 @@
       <c r="F80" t="s">
         <v>5</v>
       </c>
-      <c r="G80" s="2" t="s">
+      <c r="G80" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="H80" s="2" t="s">
+      <c r="H80" s="10" t="s">
         <v>163</v>
       </c>
       <c r="I80">
@@ -3507,10 +3517,10 @@
       <c r="F81" t="s">
         <v>5</v>
       </c>
-      <c r="G81" s="2" t="s">
+      <c r="G81" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="H81" s="2" t="s">
+      <c r="H81" s="10" t="s">
         <v>165</v>
       </c>
       <c r="I81">
@@ -3536,10 +3546,10 @@
       <c r="F82" t="s">
         <v>5</v>
       </c>
-      <c r="G82" s="2" t="s">
+      <c r="G82" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="H82" s="2" t="s">
+      <c r="H82" s="10" t="s">
         <v>167</v>
       </c>
       <c r="I82">
@@ -3565,10 +3575,10 @@
       <c r="F83" t="s">
         <v>5</v>
       </c>
-      <c r="G83" s="2" t="s">
+      <c r="G83" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="H83" s="2" t="s">
+      <c r="H83" s="10" t="s">
         <v>169</v>
       </c>
       <c r="I83">
@@ -3710,10 +3720,10 @@
       <c r="F88" t="s">
         <v>5</v>
       </c>
-      <c r="G88" s="2" t="s">
+      <c r="G88" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="H88" s="2" t="s">
+      <c r="H88" s="10" t="s">
         <v>179</v>
       </c>
       <c r="I88">
@@ -3739,10 +3749,10 @@
       <c r="F89" t="s">
         <v>5</v>
       </c>
-      <c r="G89" s="2" t="s">
+      <c r="G89" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="H89" s="2" t="s">
+      <c r="H89" s="10" t="s">
         <v>181</v>
       </c>
       <c r="I89">
@@ -3768,10 +3778,10 @@
       <c r="F90" t="s">
         <v>5</v>
       </c>
-      <c r="G90" s="2" t="s">
+      <c r="G90" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="H90" s="2" t="s">
+      <c r="H90" s="10" t="s">
         <v>183</v>
       </c>
       <c r="I90">
@@ -3797,10 +3807,10 @@
       <c r="F91" t="s">
         <v>5</v>
       </c>
-      <c r="G91" s="2" t="s">
+      <c r="G91" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="H91" s="2" t="s">
+      <c r="H91" s="10" t="s">
         <v>185</v>
       </c>
       <c r="I91">
@@ -3826,10 +3836,10 @@
       <c r="F92" t="s">
         <v>5</v>
       </c>
-      <c r="G92" s="2" t="s">
+      <c r="G92" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="H92" s="2" t="s">
+      <c r="H92" s="10" t="s">
         <v>187</v>
       </c>
       <c r="I92">
